--- a/Android/BTCDemo/BTC_blockchain_API.xlsx
+++ b/Android/BTCDemo/BTC_blockchain_API.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dong/Desktop/文件/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catherine.brainwilliam/AndroidOBTProject/BTC/Android/BTCDemo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>BaseUrl : https://blockchain.info</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,16 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-  "mkkjcX4s4zoJJaE5E1NnfvsbuMvmzgBWTo": {
-    "final_balance": 45751300,
-    "n_tx": 4,
-    "total_received": 67759400
-  }
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取钱包未花费交易</t>
     <rPh sb="0" eb="1">
       <t>huo'qu</t>
@@ -104,24 +94,6 @@
   </si>
   <si>
     <t>/unspent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-  "unspent_outputs": [
-    {
-      "tx_hash": "00d93386605c079daf75d4854e0daf7f5374960968564e1343bf0e74e188c523",
-    "tx_hash_big_endian": "23c588e1740ebf43134e5668099674537faf0d4e85d475af9d075c608633d900",
-    "tx_index": 286558506,
-    "tx_output_n": 1,
-    "script": "76a9143973ddc5132ab11263c508c9ebc4d2f5cc1d53dc88ac",
-    "value": 32991900,
-    "value_hex": "01f76a9c",
-    "confirmations": 201
-    },
-    ......
-  ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,35 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Transaction </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FF333333"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Submitted （返回数据为字符串）</t>
-    </r>
-    <rPh sb="23" eb="24">
-      <t>fan'hui</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>shu'ju</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>zi'fu'chuan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取交易记录</t>
     <rPh sb="0" eb="1">
       <t>huo'uq</t>
@@ -211,35 +154,6 @@
   </si>
   <si>
     <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-        "hash160":"40cf7765cd74dee5113c5a71637731c5704be71b",
-        "address":"16ugnJ7pndAFJJfMwoSDFbNTwzHvxhL1cL",
-        "n_tx":25,
-        "total_received":2035000,
-        "total_sent":2030000,
-        "final_balance":5000,
-        "txs":[
-    {
-       "ver":1,
-       "inputs":[ ...],
-       "weight":1020
-       "relayed_by":"127.0.0.1",
-       "out":[ ...],
-       "lock_time":0,
-       "result":0,
-       "size":255,
-       "time":1542685297,
-       "tx_index":390942774,
-       "vin_sz":1,
-               "hash":"20dbd629ed8150f3524964f03d3a82c096b00382e9e7ab4ee74d6d659fe5df83",
-       "vout_sz":2
-        },
-       ...
-    ]
-}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -313,12 +227,738 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transaction </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Submitted （返回数据为字符串）</t>
+    </r>
+    <rPh sb="23" eb="24">
+      <t>fan'hui</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>shu'ju</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>zi'fu'chuan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active：当前账户的Address
+final_balance：账户的最终余额
+n_tx：账户的总交易笔数
+total_received：账户的总共接受的金额</t>
+    <rPh sb="7" eb="8">
+      <t>danfg qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zui zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yu e</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>bi shu</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>de</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>zonng</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>de</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>jin e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "unspent_outputs": [
+    {
+            "tx_hash": "397db0c0cadecfb9d033589a9258f05ca04b3420bf1da9a0abc83d206d7204bb",
+            "tx_hash_big_endian": "bb04726d203dc8aba0a91dbf20344ba05cf058929a5833d0b9cfdecac0b07d39",
+            "tx_index": 390941217,
+            "tx_output_n": 1,
+            "script": "76a91440cf7765cd74dee5113c5a71637731c5704be71b88ac",
+            "value": 1000,
+            "value_hex": "03e8",
+            "confirmations": 1806
+        },
+    ......
+  ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "16ugnJ7pndAFJJfMwoSDFbNTwzHvxhL1cL": {
+    "final_balance": 45751300,
+    "n_tx": 4,
+    "total_received": 67759400
+  }
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>active：当前账户的Address
+unspent_outputs:当前账户所有的未花费输出「UTXO」
+tx_hash:此交易区块的hash值的反转(目前不知道为什么提供这个)
+tx_hash_big_endian:此交易区块的hash值
+tx_index:
+tx_output_n:当前正在使用的UTXO‘s index，用戶交易時需要傳入的輸出數據參數。
+script:当前输出允许花费的脚本验证。(相当于一把锁，所以，想要使用这笔输出，必须提供所对应的钥匙才行)
+value:
+value_hex:
+confirmations:此交易区块的确认数</t>
+    <rPh sb="36" eb="37">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>de</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>de</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>fan zhuan</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>mju qian</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>bu zhi dao</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wei shen m</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ci jiao yi</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>kuai</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>de</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>zheng zai</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>de</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="169" eb="170">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>chaun ru</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>d</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>hua fei</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>de</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>xiang dang yu</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>yi ba</t>
+    </rPh>
+    <rPh sb="210" eb="211">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="212" eb="213">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>xiang yao</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>zhe bi</t>
+    </rPh>
+    <rPh sb="221" eb="222">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>suo du ying</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>de</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>yao sh</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>cai xing</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>jiao yi qu ykuai</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>de</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>que ren</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+        "hash160":"40cf7765cd74dee5113c5a71637731c5704be71b",
+        "address":"16ugnJ7pndAFJJfMwoSDFbNTwzHvxhL1cL",
+        "n_tx":25,
+        "total_received":2035000,
+        "total_sent":2030000,
+        "final_balance":5000,
+        "txs":[
+    {
+       "ver":1,
+       "inputs":[{
+"sequence": 4294967295,
+"witness": "",
+"prev_out": {
+"spent": true,
+"spending_outpoints": [
+{
+"tx_index": 393675932,
+"n": 0
+}
+],
+"tx_index": 391841035,
+"type": 0,
+"addr": "16ugnJ7pndAFJJfMwoSDFbNTwzHvxhL1cL",
+"value": 32000,
+"n": 1,
+"script": "76a91440cf7765cd74dee5113c5a71637731c5704be71b88ac"
+},
+"script": "483045022100af6efaf731a32ad6805cb702e3adc636494df8022bacb7257e1c81751dfb0056022002197ea60fd6005ae15ee8baefe9b1de53c1e8371f4ce141b9b8a6c29f0252cc8141048fe10b91d8c6f250d2016376e82c31658e7227fdeaa463f64cf868eb3c90e3e184d7e08179e7dc87a02f8fae8e375c72db1dbef93e204fbec93c016590f53b8d"
+}
+],
+"weight": 1032,
+"block_height": 552024,
+"relayed_by": "127.0.0.1",
+"out": [],
+"lock_time": 0,
+"result": 0,
+"size": 258,
+"block_index": 1734577,
+"time": 1543572021,
+"tx_index": 393675932,
+"vin_sz": 1,
+"hash": "0bd1ea19154949ae634b155a90d0afb6f67a40298175959bf897e676cfaaba3f",
+"vout_sz": 2
+},
+       ...
+    ]
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash:當前交易區塊的hash值
+ver:版本？
+vin_sz:輸入數量
+vout_sz:輸出數量
+lock_time:解鎖時間？
+size:
+relayed_by:被轉播
+block_height:區塊高度
+tx_index:
+inputs:交易輸入對象
+prev_out:上一塊的輸出對象
+value:
+n:
+script:交易鎖腳本
+out:交易輸出對象</t>
+    <rPh sb="5" eb="6">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban be</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu vhu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shu l</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jie suo shi j</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zhuan bo</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>gao du</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>dui xiang</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>shang yi kuai</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>de</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>dui x</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash160:帳戶公鑰的hash160格式
+address:      当前钱包的地址
+n_tx:      当前钱包的交易笔数
+total_received:      当前钱包总共的接受金额数目
+total_sent:       當前錢包總共發送出去的金額數目
+final_balance:     當前錢包最終可用的金額
+txs:    交易對象
+ver:  版本？
+inputs:    交易輸入對象
+sequence：
+witness：
+prev_out：上一筆輸入對象
+spent：是否花費
+spending_outpoints：花費輸出信息對象
+tx_index：
+n：
+type：
+addr：
+value：
+n：
+script：當前交易鎖的腳本
+weight:
+relayed_by :  被轉播
+out:    交易輸出對象
+lock_time:    
+result:
+size:    
+block_index: 
+time: 當前時間的毫秒數
+tx_index:     
+vin_sz:      輸入數量
+hash: 當前交易的hash
+vout_sz：     輸出數量</t>
+    <rPh sb="8" eb="9">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>gong yao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>de</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>de</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>de</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>bi shu</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>zong gong</t>
+    </rPh>
+    <rPh sb="93" eb="94">
+      <t>de</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>zong gong</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>chu qu</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>de</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>shu mu</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>qian bao</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>zui zhong</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>ke yong</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>de</t>
+    </rPh>
+    <rPh sb="163" eb="164">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="185" eb="186">
+      <t>ban ben</t>
+    </rPh>
+    <rPh sb="200" eb="201">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="202" eb="203">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="204" eb="205">
+      <t>dui xiang</t>
+    </rPh>
+    <rPh sb="235" eb="236">
+      <t>shag yi bi</t>
+    </rPh>
+    <rPh sb="238" eb="239">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="240" eb="241">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="251" eb="252">
+      <t>hua fei</t>
+    </rPh>
+    <rPh sb="273" eb="274">
+      <t>hua fwi</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="277" eb="278">
+      <t>xin xi</t>
+    </rPh>
+    <rPh sb="279" eb="280">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="324" eb="325">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="326" eb="327">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="328" eb="329">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="329" eb="330">
+      <t>de</t>
+    </rPh>
+    <rPh sb="330" eb="331">
+      <t>jao ben</t>
+    </rPh>
+    <rPh sb="355" eb="356">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="356" eb="357">
+      <t>zhuan bo</t>
+    </rPh>
+    <rPh sb="367" eb="368">
+      <t>jao yi</t>
+    </rPh>
+    <rPh sb="369" eb="370">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="371" eb="372">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="427" eb="428">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="429" eb="430">
+      <t>shi jian</t>
+    </rPh>
+    <rPh sb="431" eb="432">
+      <t>de</t>
+    </rPh>
+    <rPh sb="432" eb="433">
+      <t>hao miao</t>
+    </rPh>
+    <rPh sb="434" eb="435">
+      <t>shu</t>
+    </rPh>
+    <rPh sb="464" eb="465">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="466" eb="467">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="475" eb="476">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="477" eb="478">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="479" eb="480">
+      <t>de</t>
+    </rPh>
+    <rPh sb="498" eb="499">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="500" eb="501">
+      <t>shu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -333,28 +973,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -375,44 +993,84 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="黑体"/>
+      <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color rgb="FF333333"/>
-      <name val="黑体"/>
+      <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="黑体"/>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="黑体"/>
+      <name val="华文楷体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -420,38 +1078,93 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -732,275 +1445,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="74.5" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="157.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="66.83203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="124" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="187" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="314" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="340" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="B11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="392" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B15" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="7"/>
+      <c r="F15" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="18"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="18"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
     <mergeCell ref="A1:G3"/>
-    <mergeCell ref="E14:E31"/>
-    <mergeCell ref="D14:D31"/>
-    <mergeCell ref="A14:A31"/>
-    <mergeCell ref="B14:B31"/>
-    <mergeCell ref="C14:C31"/>
+    <mergeCell ref="E15:E32"/>
+    <mergeCell ref="D15:D32"/>
+    <mergeCell ref="A15:A32"/>
+    <mergeCell ref="B15:B32"/>
+    <mergeCell ref="C15:C32"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="F15:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/BTCDemo/BTC_blockchain_API.xlsx
+++ b/Android/BTCDemo/BTC_blockchain_API.xlsx
@@ -261,70 +261,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>active：当前账户的Address
-final_balance：账户的最终余额
-n_tx：账户的总交易笔数
-total_received：账户的总共接受的金额</t>
-    <rPh sb="7" eb="8">
-      <t>danfg qian</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>de</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>zui zhong</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>yu e</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>de</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>zong</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>bi shu</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>de</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>zonng</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>gong</t>
-    </rPh>
-    <rPh sb="76" eb="77">
-      <t>jie shou</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>de</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>jin e</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
   "unspent_outputs": [
     {
@@ -350,205 +286,6 @@
     "total_received": 67759400
   }
 }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>active：当前账户的Address
-unspent_outputs:当前账户所有的未花费输出「UTXO」
-tx_hash:此交易区块的hash值的反转(目前不知道为什么提供这个)
-tx_hash_big_endian:此交易区块的hash值
-tx_index:
-tx_output_n:当前正在使用的UTXO‘s index，用戶交易時需要傳入的輸出數據參數。
-script:当前输出允许花费的脚本验证。(相当于一把锁，所以，想要使用这笔输出，必须提供所对应的钥匙才行)
-value:
-value_hex:
-confirmations:此交易区块的确认数</t>
-    <rPh sb="36" eb="37">
-      <t>dang qian</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>suo you</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>de</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>qu kuai</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>de</t>
-    </rPh>
-    <rPh sb="73" eb="74">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>de</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>fan zhuan</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>mju qian</t>
-    </rPh>
-    <rPh sb="80" eb="81">
-      <t>bu zhi dao</t>
-    </rPh>
-    <rPh sb="83" eb="84">
-      <t>wei shen m</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>ti gong</t>
-    </rPh>
-    <rPh sb="88" eb="89">
-      <t>zhe ge</t>
-    </rPh>
-    <rPh sb="111" eb="112">
-      <t>ci jiao yi</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>qu</t>
-    </rPh>
-    <rPh sb="115" eb="116">
-      <t>kuai</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>de</t>
-    </rPh>
-    <rPh sb="121" eb="122">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="145" eb="146">
-      <t>dang qian</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>zheng zai</t>
-    </rPh>
-    <rPh sb="149" eb="150">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="151" eb="152">
-      <t>de</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="169" eb="170">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>xu yao</t>
-    </rPh>
-    <rPh sb="172" eb="173">
-      <t>chaun ru</t>
-    </rPh>
-    <rPh sb="174" eb="175">
-      <t>d</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="179" eb="180">
-      <t>can shu</t>
-    </rPh>
-    <rPh sb="190" eb="191">
-      <t>dang qian</t>
-    </rPh>
-    <rPh sb="192" eb="193">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>yun x</t>
-    </rPh>
-    <rPh sb="196" eb="197">
-      <t>hua fei</t>
-    </rPh>
-    <rPh sb="198" eb="199">
-      <t>de</t>
-    </rPh>
-    <rPh sb="199" eb="200">
-      <t>jiao ben</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>yan zheng</t>
-    </rPh>
-    <rPh sb="205" eb="206">
-      <t>xiang dang yu</t>
-    </rPh>
-    <rPh sb="208" eb="209">
-      <t>yi ba</t>
-    </rPh>
-    <rPh sb="210" eb="211">
-      <t>suo</t>
-    </rPh>
-    <rPh sb="212" eb="213">
-      <t>suo yi</t>
-    </rPh>
-    <rPh sb="215" eb="216">
-      <t>xiang yao</t>
-    </rPh>
-    <rPh sb="217" eb="218">
-      <t>shi yong</t>
-    </rPh>
-    <rPh sb="219" eb="220">
-      <t>zhe bi</t>
-    </rPh>
-    <rPh sb="221" eb="222">
-      <t>shu chu</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>bi xu</t>
-    </rPh>
-    <rPh sb="226" eb="227">
-      <t>ti gong</t>
-    </rPh>
-    <rPh sb="228" eb="229">
-      <t>suo du ying</t>
-    </rPh>
-    <rPh sb="229" eb="230">
-      <t>dui y</t>
-    </rPh>
-    <rPh sb="231" eb="232">
-      <t>de</t>
-    </rPh>
-    <rPh sb="232" eb="233">
-      <t>yao sh</t>
-    </rPh>
-    <rPh sb="234" eb="235">
-      <t>cai xing</t>
-    </rPh>
-    <rPh sb="270" eb="271">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="271" eb="272">
-      <t>jiao yi qu ykuai</t>
-    </rPh>
-    <rPh sb="275" eb="276">
-      <t>de</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>que ren</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>shu</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,114 +340,424 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hash:當前交易區塊的hash值
-ver:版本？
-vin_sz:輸入數量
-vout_sz:輸出數量
-lock_time:解鎖時間？
-size:
-relayed_by:被轉播
-block_height:區塊高度
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>active：当前账户的Address
+final_balance：账户的最终余额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+n_tx：账户的总交易笔数
+total_received：账户的总共接受的金额</t>
+    </r>
+    <rPh sb="7" eb="8">
+      <t>danfg qian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>de</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>zui zhong</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>yu e</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>de</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>zong</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>bi shu</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>de</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>zonng</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>gong</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>jie shou</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>de</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>jin e</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>active：当前账户的Address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+unspent_outputs:当前账户所有的未花费输出「UTXO」
+tx_hash:此交易区块的hash值的反转(目前不知道为什么提供这个)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tx_hash_big_endian:此交易区块的hash值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 tx_index:
-inputs:交易輸入對象
-prev_out:上一塊的輸出對象
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>tx_output_n:当前正在使用的UTXO‘s index，用戶交易時需要傳入的輸出數據參數。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script:当前输出允许花费的脚本验证。(相当于一把锁，所以，想要使用这笔输出，必须提供所对应的钥匙才行)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 value:
-n:
-script:交易鎖腳本
-out:交易輸出對象</t>
-    <rPh sb="5" eb="6">
+value_hex:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>confirmations:此交易区块的确认数</t>
+    </r>
+    <rPh sb="36" eb="37">
       <t>dang qian</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="38" eb="39">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>suo you</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="64" eb="65">
       <t>jiao yi</t>
     </rPh>
-    <rPh sb="9" eb="10">
+    <rPh sb="66" eb="67">
       <t>qu kuai</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>de</t>
-    </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="68" eb="69">
+      <t>de</t>
+    </rPh>
+    <rPh sb="73" eb="74">
       <t>zhi</t>
     </rPh>
-    <rPh sb="22" eb="23">
-      <t>ban be</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>shu ru</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>shu liang</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>shu vhu</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>shu l</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>jie suo shi j</t>
-    </rPh>
-    <rPh sb="84" eb="85">
-      <t>bei</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>zhuan bo</t>
-    </rPh>
-    <rPh sb="101" eb="102">
-      <t>qu kuai</t>
-    </rPh>
-    <rPh sb="103" eb="104">
-      <t>gao du</t>
-    </rPh>
-    <rPh sb="123" eb="124">
+    <rPh sb="74" eb="75">
+      <t>de</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>fan zhuan</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>mju qian</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>bu zhi dao</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>wei shen m</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>zhe ge</t>
+    </rPh>
+    <rPh sb="111" eb="112">
+      <t>ci jiao yi</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>qu</t>
+    </rPh>
+    <rPh sb="115" eb="116">
+      <t>kuai</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>de</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>zheng zai</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>de</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="167" eb="168">
       <t>jiao yi</t>
     </rPh>
-    <rPh sb="125" eb="126">
-      <t>shu ru</t>
-    </rPh>
-    <rPh sb="127" eb="128">
-      <t>dui xiang</t>
-    </rPh>
-    <rPh sb="139" eb="140">
-      <t>shang yi kuai</t>
-    </rPh>
-    <rPh sb="142" eb="143">
-      <t>de</t>
-    </rPh>
-    <rPh sb="143" eb="144">
+    <rPh sb="169" eb="170">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>xu yao</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>chaun ru</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>d</t>
+    </rPh>
+    <rPh sb="175" eb="176">
       <t>shu chu</t>
     </rPh>
-    <rPh sb="145" eb="146">
-      <t>dui x</t>
-    </rPh>
-    <rPh sb="165" eb="166">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="167" eb="168">
+    <rPh sb="177" eb="178">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>can shu</t>
+    </rPh>
+    <rPh sb="190" eb="191">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="192" eb="193">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>yun x</t>
+    </rPh>
+    <rPh sb="196" eb="197">
+      <t>hua fei</t>
+    </rPh>
+    <rPh sb="198" eb="199">
+      <t>de</t>
+    </rPh>
+    <rPh sb="199" eb="200">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="205" eb="206">
+      <t>xiang dang yu</t>
+    </rPh>
+    <rPh sb="208" eb="209">
+      <t>yi ba</t>
+    </rPh>
+    <rPh sb="210" eb="211">
       <t>suo</t>
     </rPh>
-    <rPh sb="168" eb="169">
-      <t>jiao ben</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="177" eb="178">
+    <rPh sb="212" eb="213">
+      <t>suo yi</t>
+    </rPh>
+    <rPh sb="215" eb="216">
+      <t>xiang yao</t>
+    </rPh>
+    <rPh sb="217" eb="218">
+      <t>shi yong</t>
+    </rPh>
+    <rPh sb="219" eb="220">
+      <t>zhe bi</t>
+    </rPh>
+    <rPh sb="221" eb="222">
       <t>shu chu</t>
     </rPh>
-    <rPh sb="179" eb="180">
-      <t>dui x</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash160:帳戶公鑰的hash160格式
-address:      当前钱包的地址
+    <rPh sb="224" eb="225">
+      <t>bi xu</t>
+    </rPh>
+    <rPh sb="226" eb="227">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="228" eb="229">
+      <t>suo du ying</t>
+    </rPh>
+    <rPh sb="229" eb="230">
+      <t>dui y</t>
+    </rPh>
+    <rPh sb="231" eb="232">
+      <t>de</t>
+    </rPh>
+    <rPh sb="232" eb="233">
+      <t>yao sh</t>
+    </rPh>
+    <rPh sb="234" eb="235">
+      <t>cai xing</t>
+    </rPh>
+    <rPh sb="270" eb="271">
+      <t>ci</t>
+    </rPh>
+    <rPh sb="271" eb="272">
+      <t>jiao yi qu ykuai</t>
+    </rPh>
+    <rPh sb="275" eb="276">
+      <t>de</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>que ren</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">hash160:帳戶公鑰的hash160格式
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>address:      当前钱包的地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 n_tx:      当前钱包的交易笔数
 total_received:      当前钱包总共的接受金额数目
 total_sent:       當前錢包總共發送出去的金額數目
-final_balance:     當前錢包最終可用的金額
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>final_balance:     當前錢包最終可用的金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 txs:    交易對象
 ver:  版本？
 inputs:    交易輸入對象
@@ -728,6 +775,27 @@
 script：當前交易鎖的腳本
 weight:
 relayed_by :  被轉播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>block_height:區塊高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
 out:    交易輸出對象
 lock_time:    
 result:
@@ -738,6 +806,7 @@
 vin_sz:      輸入數量
 hash: 當前交易的hash
 vout_sz：     輸出數量</t>
+    </r>
     <rPh sb="8" eb="9">
       <t>zhang hu</t>
     </rPh>
@@ -906,50 +975,214 @@
     <rPh sb="356" eb="357">
       <t>zhuan bo</t>
     </rPh>
-    <rPh sb="367" eb="368">
+    <rPh sb="372" eb="373">
+      <t>qu kuai gao du</t>
+    </rPh>
+    <rPh sb="385" eb="386">
       <t>jao yi</t>
     </rPh>
-    <rPh sb="369" eb="370">
+    <rPh sb="387" eb="388">
       <t>shu chu</t>
     </rPh>
-    <rPh sb="371" eb="372">
+    <rPh sb="389" eb="390">
       <t>dui x</t>
     </rPh>
-    <rPh sb="427" eb="428">
+    <rPh sb="445" eb="446">
       <t>dang qian</t>
     </rPh>
-    <rPh sb="429" eb="430">
+    <rPh sb="447" eb="448">
       <t>shi jian</t>
     </rPh>
-    <rPh sb="431" eb="432">
-      <t>de</t>
-    </rPh>
-    <rPh sb="432" eb="433">
+    <rPh sb="449" eb="450">
+      <t>de</t>
+    </rPh>
+    <rPh sb="450" eb="451">
       <t>hao miao</t>
     </rPh>
-    <rPh sb="434" eb="435">
+    <rPh sb="452" eb="453">
       <t>shu</t>
     </rPh>
-    <rPh sb="464" eb="465">
+    <rPh sb="482" eb="483">
       <t>shu ru</t>
     </rPh>
-    <rPh sb="466" eb="467">
+    <rPh sb="484" eb="485">
       <t>shu liang</t>
     </rPh>
-    <rPh sb="475" eb="476">
+    <rPh sb="493" eb="494">
       <t>dang qian</t>
     </rPh>
-    <rPh sb="477" eb="478">
+    <rPh sb="495" eb="496">
       <t>jiao yi</t>
     </rPh>
-    <rPh sb="479" eb="480">
-      <t>de</t>
-    </rPh>
-    <rPh sb="498" eb="499">
+    <rPh sb="497" eb="498">
+      <t>de</t>
+    </rPh>
+    <rPh sb="516" eb="517">
       <t>shu chu</t>
     </rPh>
-    <rPh sb="500" eb="501">
+    <rPh sb="518" eb="519">
       <t>shu liang</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hash:當前交易區塊的hash值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ver:版本？
+vin_sz:輸入數量
+vout_sz:輸出數量
+lock_time:解鎖時間？
+size:
+relayed_by:被轉播
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>block_height:區塊高度</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+tx_index:
+inputs:交易輸入對象
+prev_out:上一塊的輸出對象
+value:
+n:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>script:交易鎖腳本</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+out:交易輸出對象</t>
+    </r>
+    <rPh sb="5" eb="6">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>de</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ban be</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>shu liang</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shu vhu</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>shu l</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>jie suo shi j</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>bei</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>zhuan bo</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>gao du</t>
+    </rPh>
+    <rPh sb="123" eb="124">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>dui xiang</t>
+    </rPh>
+    <rPh sb="139" eb="140">
+      <t>shang yi kuai</t>
+    </rPh>
+    <rPh sb="142" eb="143">
+      <t>de</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="145" eb="146">
+      <t>dui x</t>
+    </rPh>
+    <rPh sb="165" eb="166">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>suo</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>jiao ben</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>shu chu</t>
+    </rPh>
+    <rPh sb="179" eb="180">
+      <t>dui x</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -958,7 +1191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1037,6 +1270,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1070,7 +1310,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1093,77 +1333,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1447,8 +1727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="E8" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:F13"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1463,299 +1743,299 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="5" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="187" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="314" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="314" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="15" spans="1:7" ht="409" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="20"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="18"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="20"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="18"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="20"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="20"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="18"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="20"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="18"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="20"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="18"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="18"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="18"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="20"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="20"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
